--- a/통신규약.xlsx
+++ b/통신규약.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LEEHANHEE\Desktop\202012720_EHS-master\202012720_EHS-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nodejs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="12180" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="내보내기 요약" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="음식 상세 정보 보기" sheetId="6" r:id="rId6"/>
     <sheet name="음식 정보 추가" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -642,16 +642,21 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>{
-    "total": 2,
-    "data": [
-        {
-            "id": 2,
-            "food": "초밥",
-            "kind": "일식",
-            "explanation": "식초와 버무린 밥을 회·채소·달걀을 위에 얹거나 채워서 만드는 일본 요리이다"
-        }</t>
+    <t>음식 상세 정보 제공</t>
+  </si>
+  <si>
+    <t>ID : 음식 ID</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>음식</t>
     </r>
     <r>
       <rPr>
@@ -660,17 +665,20 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">
-    ]
-}</t>
+      <t xml:space="preserve"> 이름</t>
     </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>음식 상세 정보 제공</t>
-  </si>
-  <si>
-    <t>ID : 음식 ID</t>
+    <t>음식 종류</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>음식 설명</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>새로 추가된 음식 ID</t>
   </si>
   <si>
     <r>
@@ -681,7 +689,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>음식</t>
+      <t>새로</t>
     </r>
     <r>
       <rPr>
@@ -690,16 +698,792 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추가된</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>음식</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 설명</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>새로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추가된</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>음식</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 종류</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>새로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추가된</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>음식</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
       <t xml:space="preserve"> 이름</t>
     </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>음식 종류</t>
+    <r>
+      <t>{
+      "id":0,
+      "food":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>파스타</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>",
+      "kind":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>양식</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>",
+      "explanation":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>파스타는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이탈리아의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대표</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>요리로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>밀가루와</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>물로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>만든</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>반죽을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>소금물에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>삶아</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>만든</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>요리를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>총칭한다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"
+ }</t>
+    </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>음식 설명</t>
+    <r>
+      <t>{
+    “msg” : “success”,
+    “data”:{
+      "id":0,
+      "food":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>파스타</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t>",
+      "kind":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>양식</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t>",
+      "explanation":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>파스타는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이탈리아의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대표</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>요리로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>밀가루와</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>물로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>만든</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>반죽을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>소금물에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>삶아</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>만든</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>요리를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>총칭한다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t>"
+ }</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+}</t>
+    </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -714,12 +1498,12 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
+        <color indexed="8"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>스파게티</t>
+      <t>파스타</t>
     </r>
     <r>
       <rPr>
@@ -759,7 +1543,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>스파게티는</t>
+      <t>파스타는</t>
     </r>
     <r>
       <rPr>
@@ -778,7 +1562,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>길고</t>
+      <t>이탈리아의</t>
     </r>
     <r>
       <rPr>
@@ -797,7 +1581,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>가는</t>
+      <t>대표</t>
     </r>
     <r>
       <rPr>
@@ -816,7 +1600,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>원통형</t>
+      <t>요리로</t>
     </r>
     <r>
       <rPr>
@@ -835,7 +1619,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>파스타의</t>
+      <t>주로</t>
     </r>
     <r>
       <rPr>
@@ -854,7 +1638,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>일종이다</t>
+      <t>밀가루와</t>
     </r>
     <r>
       <rPr>
@@ -863,30 +1647,409 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>."
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>물로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>만든</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>반죽을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>소금물에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>삶아</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>만든</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>요리를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>총칭한다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"
     }
  }</t>
     </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>새로 추가된 음식 ID</t>
-  </si>
-  <si>
     <r>
       <t>{
-      "id":0,
-      "food":"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>스파게티</t>
+    "total": 2,
+    "data": [
+        {
+            "id": 2,
+            "food": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>돈까스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t>",
+            "kind": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일식</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t>",
+            "explanation": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>돈까스는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>두툼한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>돼지고기에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>밀가루</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>달걀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>빵가루를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>입혀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>튀긴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일본의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대표</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>요리이다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t>"
+        }</t>
     </r>
     <r>
       <rPr>
@@ -895,345 +2058,8 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>",
-      "kind":"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>양식</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>",
-      "explanation":"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>스파게티는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>길고</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>가는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>원통형</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>파스타의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>일종이다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>."
- }</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>새로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>추가된</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>음식</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 설명</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>새로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>추가된</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>음식</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 종류</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>새로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>추가된</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>음식</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 이름</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>{
-    “msg” : “success”,
-    “data”:{
-      "id":0,
-      "food":"스파게티",
-      "kind":"양식",
-      "explanation":"스파게티는 길고 가는 원통형 파스타의 일종이다."
- }</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve">
+    ]
 }</t>
     </r>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -1243,7 +2069,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -1330,6 +2156,20 @@
       <color theme="1"/>
       <name val="Courier New"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1932,7 +2772,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2180,6 +3020,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4246,7 +5089,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:C19"/>
+      <selection activeCell="C8" sqref="C8:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5546875" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -4460,7 +5303,7 @@
         <v>73</v>
       </c>
       <c r="B19" s="81" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="C19" s="70"/>
       <c r="D19" s="7"/>
@@ -4490,8 +5333,8 @@
   </sheetPr>
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5546875" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -4516,7 +5359,7 @@
         <v>36</v>
       </c>
       <c r="B2" s="81" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C2" s="70"/>
       <c r="D2" s="70"/>
@@ -4531,7 +5374,7 @@
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E3" s="51"/>
     </row>
@@ -4637,7 +5480,7 @@
         <v>98</v>
       </c>
       <c r="D13" s="60" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E13" s="51"/>
     </row>
@@ -4648,7 +5491,7 @@
         <v>101</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E14" s="51"/>
     </row>
@@ -4659,7 +5502,7 @@
         <v>104</v>
       </c>
       <c r="D15" s="62" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E15" s="51"/>
     </row>
@@ -4675,7 +5518,7 @@
         <v>77</v>
       </c>
       <c r="B17" s="81" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C17" s="70"/>
       <c r="D17" s="70"/>
@@ -4719,8 +5562,8 @@
   </sheetPr>
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5546875" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -4837,8 +5680,8 @@
       <c r="A11" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="B11" s="81" t="s">
-        <v>113</v>
+      <c r="B11" s="83" t="s">
+        <v>114</v>
       </c>
       <c r="C11" s="70"/>
       <c r="D11" s="7"/>
@@ -4900,7 +5743,7 @@
         <v>72</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E17" s="51"/>
     </row>
@@ -4911,7 +5754,7 @@
         <v>98</v>
       </c>
       <c r="D18" s="60" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E18" s="51"/>
     </row>
@@ -4922,7 +5765,7 @@
         <v>101</v>
       </c>
       <c r="D19" s="60" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E19" s="51"/>
     </row>
@@ -4933,7 +5776,7 @@
         <v>103</v>
       </c>
       <c r="D20" s="60" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E20" s="51"/>
     </row>
@@ -4948,8 +5791,8 @@
       <c r="A22" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="81" t="s">
-        <v>117</v>
+      <c r="B22" s="83" t="s">
+        <v>115</v>
       </c>
       <c r="C22" s="70"/>
       <c r="D22" s="70"/>
